--- a/Files/college_info/all_colleges/MRTN/MRTN_placements.xlsx
+++ b/Files/college_info/all_colleges/MRTN/MRTN_placements.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91703\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91703\Desktop\gitt\PYTHON PROJECT\github\python_project-dataset\Files\college_info\all_colleges\MRTN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E405B2-2EF5-4AE9-ACA4-BD9FFF9530A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8DE277-780F-4EE8-9D83-240F852E8A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4605,7 +4605,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -27790,8 +27801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.44140625" defaultRowHeight="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -28622,6 +28633,9 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E58">
     <sortCondition descending="1" ref="D2"/>
   </sortState>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Files/college_info/all_colleges/MRTN/MRTN_placements.xlsx
+++ b/Files/college_info/all_colleges/MRTN/MRTN_placements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91703\Desktop\gitt\PYTHON PROJECT\github\python_project-dataset\Files\college_info\all_colleges\MRTN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8DE277-780F-4EE8-9D83-240F852E8A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537787E6-AC39-4028-A622-CD79BCC57D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4465,7 +4465,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4492,14 +4492,21 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial Black"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4516,6 +4523,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -4557,7 +4570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4586,12 +4599,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4601,6 +4608,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -27801,8 +27815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.44140625" defaultRowHeight="24.9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -27812,815 +27826,815 @@
     <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:4" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>1468</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>1469</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="13" t="s">
         <v>1470</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="14" t="s">
         <v>1471</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>1463</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="10">
         <v>27</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <v>10</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>1067</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>9</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>1024</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>8</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>773</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <v>8</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>1212</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <v>7.5</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>1467</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <v>7</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>866</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="10">
         <v>6.5</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>896</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="10">
         <v>6.45</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>1211</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="10">
         <v>6.25</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="10">
         <v>6</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>996</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="10">
         <v>6</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>1033</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="10">
         <v>6</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>1137</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="10">
         <v>6</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>1201</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="10">
         <v>6</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="12">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>1465</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="10">
         <v>5.52</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="10">
         <v>5.5</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="12">
         <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>1140</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="10">
         <v>5.2</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="12">
         <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="11" t="s">
         <v>1013</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="10">
         <v>5</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="12">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="11" t="s">
         <v>1069</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="10">
         <v>5</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="12">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="10">
         <v>5</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="11" t="s">
         <v>1110</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="10">
         <v>5</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
+      <c r="A24" s="10">
         <v>23</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="11" t="s">
         <v>1215</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="10">
         <v>5</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12">
+      <c r="A25" s="10">
         <v>24</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="11" t="s">
         <v>1216</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="10">
         <v>5</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12">
+      <c r="A26" s="10">
         <v>25</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="11" t="s">
         <v>793</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="10">
         <v>4.5</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12">
+      <c r="A27" s="10">
         <v>26</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="11" t="s">
         <v>1214</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="10">
         <v>4.5</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12">
+      <c r="A28" s="10">
         <v>27</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="11" t="s">
         <v>807</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="10">
         <v>4.25</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="12">
         <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12">
+      <c r="A29" s="10">
         <v>28</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="11" t="s">
         <v>550</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="10">
         <v>4</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="12">
         <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12">
+      <c r="A30" s="10">
         <v>29</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="10">
         <v>4</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="12">
         <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12">
+      <c r="A31" s="10">
         <v>30</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="10">
         <v>4</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12">
+      <c r="A32" s="10">
         <v>31</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="11" t="s">
         <v>1034</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="10">
         <v>4</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12">
+      <c r="A33" s="10">
         <v>32</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="11" t="s">
         <v>1457</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="10">
         <v>4</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="12">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12">
+      <c r="A34" s="10">
         <v>33</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="11" t="s">
         <v>1009</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="10">
         <v>4</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="12">
+      <c r="A35" s="10">
         <v>34</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="11" t="s">
         <v>868</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="10">
         <v>4</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12">
+      <c r="A36" s="10">
         <v>35</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="11" t="s">
         <v>864</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="10">
         <v>4</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12">
+      <c r="A37" s="10">
         <v>36</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="11" t="s">
         <v>984</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="10">
         <v>4</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12">
+      <c r="A38" s="10">
         <v>37</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="11" t="s">
         <v>1361</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="10">
         <v>3.6</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="12">
         <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="12">
+      <c r="A39" s="10">
         <v>38</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="11" t="s">
         <v>1115</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="10">
         <v>3.5</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="12">
         <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12">
+      <c r="A40" s="10">
         <v>39</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="11" t="s">
         <v>1076</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="10">
         <v>3.5</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12">
+      <c r="A41" s="10">
         <v>40</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="11" t="s">
         <v>871</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="10">
         <v>3.5</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D41" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12">
+      <c r="A42" s="10">
         <v>41</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="11" t="s">
         <v>785</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="10">
         <v>3.5</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D42" s="12">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12">
+      <c r="A43" s="10">
         <v>42</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="10">
         <v>3.5</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D43" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12">
+      <c r="A44" s="10">
         <v>43</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="11" t="s">
         <v>1136</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="10">
         <v>3.5</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D44" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="12">
+      <c r="A45" s="10">
         <v>44</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="11" t="s">
         <v>1219</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="10">
         <v>3.5</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D45" s="12">
         <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="12">
+      <c r="A46" s="10">
         <v>45</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="10">
         <v>3.4</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D46" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12">
+      <c r="A47" s="10">
         <v>46</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="11" t="s">
         <v>1048</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="10">
         <v>3.25</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="12">
         <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12">
+      <c r="A48" s="10">
         <v>47</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="11" t="s">
         <v>1195</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="10">
         <v>3.25</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D48" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="12">
+      <c r="A49" s="10">
         <v>48</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="11" t="s">
         <v>777</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="10">
         <v>3.2</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12">
+      <c r="A50" s="10">
         <v>49</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="11" t="s">
         <v>1022</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="10">
         <v>3.14</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D50" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="12">
+      <c r="A51" s="10">
         <v>50</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="11" t="s">
         <v>999</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="10">
         <v>3</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="12">
         <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12">
+      <c r="A52" s="10">
         <v>51</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="11" t="s">
         <v>797</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="10">
         <v>3</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D52" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="12">
+      <c r="A53" s="10">
         <v>52</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="11" t="s">
         <v>892</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="10">
         <v>3</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D53" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="12">
+      <c r="A54" s="10">
         <v>53</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C54" s="10">
         <v>3</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D54" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="12">
+      <c r="A55" s="10">
         <v>54</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="11" t="s">
         <v>1209</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="10">
         <v>2.6</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D55" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="12">
+      <c r="A56" s="10">
         <v>55</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C56" s="10">
         <v>2.5</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D56" s="12">
         <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="12">
+      <c r="A57" s="10">
         <v>56</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="11" t="s">
         <v>986</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D57" s="12">
         <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="12">
+      <c r="A58" s="10">
         <v>57</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="11" t="s">
         <v>771</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58" s="10">
         <v>1.8</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D58" s="12">
         <v>1</v>
       </c>
     </row>
